--- a/tour/3/entry_form.xlsx
+++ b/tour/3/entry_form.xlsx
@@ -12,8 +12,8 @@
     <sheet name="記入例" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">記入例!$A$1:$J$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">申込用紙!$A$1:$J$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">記入例!$A$1:$J$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">申込用紙!$A$1:$J$44</definedName>
     <definedName name="ランク">list!$B$2:$B$6</definedName>
     <definedName name="性別">list!$A$2:$A$4</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
   <si>
     <t>性別</t>
     <rPh sb="0" eb="2">
@@ -249,22 +249,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>成年部（40歳以上）</t>
-    <rPh sb="0" eb="2">
-      <t>セイネン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇〇　太郎</t>
     <rPh sb="3" eb="5">
       <t>タロウ</t>
@@ -336,10 +320,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※送金者名が申込者と異なる場合は申し込み時にお知らせください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※受付の連絡をもって受付完了としています。</t>
     <rPh sb="1" eb="3">
       <t>ウケツケ</t>
@@ -352,6 +332,25 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成年部（40歳以上限定）</t>
+    <rPh sb="0" eb="2">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -367,7 +366,7 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>氏名の後ろに学年の記入</t>
+      <t>氏名の後ろに学年を記入</t>
     </r>
     <r>
       <rPr>
@@ -376,13 +375,48 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>をお願いします。</t>
+      <t>してください。</t>
     </r>
     <rPh sb="9" eb="11">
       <t>シメイ</t>
     </rPh>
     <rPh sb="12" eb="13">
       <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※お振り込みの送金者名が申込者と異なる場合は、お申し込み時にお知らせください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成年部は混合（男女割合自由）のため、性別は未選択でかまいません。</t>
+    <rPh sb="0" eb="2">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダンジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ワリアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -744,6 +778,36 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,18 +832,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -796,24 +848,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,7 +1158,7 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1158,7 +1192,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1190,44 +1224,44 @@
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:9" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" ht="10.050000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1255,13 +1289,13 @@
     </row>
     <row r="8" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="25"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="25"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
@@ -1307,13 +1341,13 @@
     </row>
     <row r="12" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
-      <c r="C12" s="25"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="25"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="25"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
@@ -1333,15 +1367,15 @@
     </row>
     <row r="14" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="24"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="24"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="10.050000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1368,152 +1402,152 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="21">
+      <c r="B17" s="31">
         <v>1</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="21">
+      <c r="E17" s="31">
         <v>1</v>
       </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="21">
+      <c r="H17" s="31">
         <v>1</v>
       </c>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="21"/>
-      <c r="C18" s="23"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="31"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="23"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="21">
+      <c r="B19" s="31">
         <v>2</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="21">
+      <c r="E19" s="31">
         <v>2</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="21">
+      <c r="H19" s="31">
         <v>2</v>
       </c>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="21"/>
-      <c r="C20" s="23"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="31"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="23"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="21">
+      <c r="B21" s="31">
         <v>3</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="21">
+      <c r="E21" s="31">
         <v>3</v>
       </c>
-      <c r="F21" s="22"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="21">
+      <c r="H21" s="31">
         <v>3</v>
       </c>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="21"/>
-      <c r="C22" s="23"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="31"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="23"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="23"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="21">
+      <c r="B23" s="31">
         <v>4</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="21">
+      <c r="E23" s="31">
         <v>4</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="21">
+      <c r="H23" s="31">
         <v>4</v>
       </c>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="21"/>
-      <c r="C24" s="23"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="31"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="23"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="23"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="14">
+      <c r="B25" s="24">
         <v>5</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="E25" s="14">
+      <c r="C25" s="14"/>
+      <c r="E25" s="24">
         <v>5</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="H25" s="14">
+      <c r="F25" s="14"/>
+      <c r="H25" s="24">
         <v>5</v>
       </c>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="14"/>
-      <c r="C26" s="23"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="23"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="23"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="24"/>
+      <c r="C26" s="15"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="15"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="14">
+      <c r="B27" s="24">
         <v>6</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="E27" s="14">
+      <c r="C27" s="14"/>
+      <c r="E27" s="24">
         <v>6</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="H27" s="14">
+      <c r="F27" s="14"/>
+      <c r="H27" s="24">
         <v>6</v>
       </c>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="14"/>
-      <c r="C28" s="23"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="23"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="23"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="24"/>
+      <c r="C28" s="15"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="15"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1521,7 +1555,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -1545,7 +1579,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -1554,7 +1588,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1565,9 +1599,11 @@
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="13"/>
-      <c r="C34" s="37" t="s">
-        <v>17</v>
+      <c r="B34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -1578,6 +1614,7 @@
     </row>
     <row r="35" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -1587,8 +1624,8 @@
     </row>
     <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
-      <c r="C36" s="13" t="s">
-        <v>33</v>
+      <c r="C36" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -1597,7 +1634,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -1607,11 +1644,9 @@
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="B38" s="13"/>
       <c r="C38" s="13" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -1622,7 +1657,6 @@
     </row>
     <row r="39" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -1635,13 +1669,37 @@
         <v>9</v>
       </c>
       <c r="C40" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13" t="s">
-        <v>34</v>
+    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1684,7 +1742,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1705,50 +1763,50 @@
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
+      <c r="D3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
+      <c r="D4" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="1:9" ht="10.050000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1776,15 +1834,15 @@
     </row>
     <row r="8" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
-      <c r="C8" s="32" t="s">
-        <v>25</v>
+      <c r="C8" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="25"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="25"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
@@ -1804,7 +1862,7 @@
     </row>
     <row r="10" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11"/>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="11"/>
@@ -1832,15 +1890,15 @@
     </row>
     <row r="12" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="25"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="25"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
@@ -1860,17 +1918,17 @@
     </row>
     <row r="14" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="34" t="s">
-        <v>22</v>
+      <c r="C14" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="24"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="10.050000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1897,168 +1955,168 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="21">
+      <c r="B17" s="31">
         <v>1</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="31">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="31">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="31"/>
+      <c r="C18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="31">
+        <v>2</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="31">
+        <v>2</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="31">
+        <v>2</v>
+      </c>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="31"/>
+      <c r="C20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="21">
-        <v>1</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="21">
-        <v>1</v>
-      </c>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="21"/>
-      <c r="C18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="21">
-        <v>2</v>
-      </c>
-      <c r="C19" s="35" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="31">
+        <v>3</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="31">
+        <v>3</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="31">
+        <v>3</v>
+      </c>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="31"/>
+      <c r="C22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="21">
-        <v>2</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="21">
-        <v>2</v>
-      </c>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="21"/>
-      <c r="C20" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="21">
-        <v>3</v>
-      </c>
-      <c r="C21" s="35" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="31">
+        <v>4</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="21">
-        <v>3</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="21">
-        <v>3</v>
-      </c>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="21"/>
-      <c r="C22" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="21">
+      <c r="D23" s="11"/>
+      <c r="E23" s="31">
         <v>4</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="31">
+        <v>4</v>
+      </c>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="31"/>
+      <c r="C24" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="21">
-        <v>4</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="21">
-        <v>4</v>
-      </c>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="21"/>
-      <c r="C24" s="36" t="s">
-        <v>32</v>
-      </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="23"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="23"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="14">
+      <c r="B25" s="24">
         <v>5</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="E25" s="14">
+      <c r="C25" s="14"/>
+      <c r="E25" s="24">
         <v>5</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="H25" s="14">
+      <c r="F25" s="14"/>
+      <c r="H25" s="24">
         <v>5</v>
       </c>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="14"/>
-      <c r="C26" s="23"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="23"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="23"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="24"/>
+      <c r="C26" s="15"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="15"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="14">
+      <c r="B27" s="24">
         <v>6</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="E27" s="14">
+      <c r="C27" s="14"/>
+      <c r="E27" s="24">
         <v>6</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="H27" s="14">
+      <c r="F27" s="14"/>
+      <c r="H27" s="24">
         <v>6</v>
       </c>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="2:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="14"/>
-      <c r="C28" s="23"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="23"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="23"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="2:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="24"/>
+      <c r="C28" s="15"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="15"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2066,7 +2124,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -2090,7 +2148,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -2099,7 +2157,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -2110,9 +2168,11 @@
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="13"/>
-      <c r="C34" s="37" t="s">
-        <v>17</v>
+      <c r="B34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -2123,6 +2183,7 @@
     </row>
     <row r="35" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -2132,8 +2193,8 @@
     </row>
     <row r="36" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
-      <c r="C36" s="13" t="s">
-        <v>33</v>
+      <c r="C36" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -2142,7 +2203,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -2152,11 +2213,9 @@
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="B38" s="13"/>
       <c r="C38" s="13" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -2167,7 +2226,6 @@
     </row>
     <row r="39" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -2180,13 +2238,37 @@
         <v>9</v>
       </c>
       <c r="C40" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="2:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13" t="s">
-        <v>34</v>
+    <row r="43" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
